--- a/data/xlsx/Baernreither_Personenregister_2024.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2024.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B4CA9C-3660-4112-8D5B-80DF63970CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF3E8F5-47FD-4FDA-AE0E-73EACD9F88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+8DrcqReQDelHJr/IRafuo5yBb+PLaa+WpZ3sNgZWxU="/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="2316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="2315">
   <si>
     <t>Nachname</t>
   </si>
@@ -5977,20 +5977,6 @@
     <t>1901-1918 MöHH (Gruppe der Rechten), ab 1922 Präs. der "Heimischer Holzverband für Oberösterreich und Salzburg AG" in Linz</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://d-nb.info/gnd/1035682745</t>
-    </r>
-  </si>
-  <si>
     <t>StarhembergErnst</t>
   </si>
   <si>
@@ -7002,20 +6988,6 @@
     <t>Historiker, 1906–1909 Chefredakteur des "Fremdenblatt", 1909 u. 1923–1925 Chefredakteur der "Wiener Zeitung"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://d-nb.info/gnd/116001550</t>
-    </r>
-  </si>
-  <si>
     <t>ZweybrueckFranz</t>
   </si>
   <si>
@@ -7107,13 +7079,16 @@
   </si>
   <si>
     <t>1878–1879 u. 1888–1914 MgalLt, 1880–1883 Gemeinderat von Lemberg, 1892 Sektionschef im Handelsministerium und Generaldirektor der Österr. Staatsbahnen, 30.9.1895–28.11.1897 u. 10.2.1909–9.1.1911 österr. Finanzminister, 30.9.1895–17.1.1896 M. o. P. (Galizien), 20.2.1912–7.2.1915 österr.-ungar. Finanzminister, 1919 poln. Finanzminister, 1883–1892, 1897–1900 u.1907–1912 MöAH (Polenklub), 1900–1918 MöHH (Gruppe der Rechten)</t>
+  </si>
+  <si>
+    <t>http://d-nb.info/gnd/1035682745</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="66">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7472,12 +7447,6 @@
       <name val="Calibri, sans-serif"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
@@ -7718,7 +7687,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7968,7 +7937,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -8021,25 +7990,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8525,8 +8494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="136" workbookViewId="0">
+      <selection activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8570,10 +8539,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="136" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="J1" s="136" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -9243,7 +9212,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="136" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>91</v>
@@ -9507,7 +9476,7 @@
         <v>119</v>
       </c>
       <c r="H23" s="136" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>120</v>
@@ -10510,7 +10479,7 @@
         <v>36</v>
       </c>
       <c r="H46" s="137" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>251</v>
@@ -13158,7 +13127,7 @@
         <v>36</v>
       </c>
       <c r="H104" s="137" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="I104" s="48" t="s">
         <v>597</v>
@@ -13964,7 +13933,7 @@
         <v>692</v>
       </c>
       <c r="H122" s="138" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>693</v>
@@ -14231,7 +14200,7 @@
         <v>724</v>
       </c>
       <c r="H128" s="139" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="I128" s="16" t="s">
         <v>725</v>
@@ -14751,7 +14720,7 @@
         <v>787</v>
       </c>
       <c r="H140" s="136" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="I140" s="35" t="s">
         <v>788</v>
@@ -14845,7 +14814,7 @@
         <v>36</v>
       </c>
       <c r="H142" s="136" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="I142" s="16" t="s">
         <v>799</v>
@@ -15736,7 +15705,7 @@
     </row>
     <row r="162" spans="1:25" ht="15.75" customHeight="1">
       <c r="A162" s="140" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>905</v>
@@ -15991,7 +15960,7 @@
         <v>933</v>
       </c>
       <c r="B168" s="137" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>109</v>
@@ -16273,7 +16242,7 @@
         <v>966</v>
       </c>
       <c r="B174" s="141" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="C174" s="54" t="s">
         <v>623</v>
@@ -16700,7 +16669,7 @@
         <v>1017</v>
       </c>
       <c r="H183" s="137" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="I183" s="9"/>
       <c r="J183" s="10" t="s">
@@ -16916,7 +16885,7 @@
         <v>36</v>
       </c>
       <c r="H188" s="137" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="I188" s="48" t="s">
         <v>1039</v>
@@ -17145,7 +17114,7 @@
         <v>268</v>
       </c>
       <c r="H193" s="142" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="I193" s="16" t="s">
         <v>1066</v>
@@ -18729,7 +18698,7 @@
         <v>1253</v>
       </c>
       <c r="H228" s="142" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="I228" s="16" t="s">
         <v>1254</v>
@@ -18776,7 +18745,7 @@
         <v>1258</v>
       </c>
       <c r="H229" s="141" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="I229" s="48" t="s">
         <v>1259</v>
@@ -18823,7 +18792,7 @@
         <v>35</v>
       </c>
       <c r="H230" s="142" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="I230" s="6" t="s">
         <v>1263</v>
@@ -20271,7 +20240,7 @@
       <c r="H262" s="59" t="s">
         <v>1425</v>
       </c>
-      <c r="I262" s="78" t="s">
+      <c r="I262" s="117" t="s">
         <v>1426</v>
       </c>
       <c r="J262" s="59" t="s">
@@ -20541,7 +20510,7 @@
         <v>1460</v>
       </c>
       <c r="H268" s="141" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="I268" s="9" t="s">
         <v>1461</v>
@@ -21710,7 +21679,7 @@
         <v>1589</v>
       </c>
       <c r="B295" s="141" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="C295" s="54" t="s">
         <v>1590</v>
@@ -22115,7 +22084,7 @@
         <v>36</v>
       </c>
       <c r="H304" s="142" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="I304" s="16" t="s">
         <v>1633</v>
@@ -24394,7 +24363,7 @@
         <v>1882</v>
       </c>
       <c r="H355" s="142" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="I355" s="16" t="s">
         <v>1883</v>
@@ -24940,11 +24909,11 @@
       <c r="H367" s="52" t="s">
         <v>1950</v>
       </c>
-      <c r="I367" s="36" t="s">
+      <c r="I367" s="117" t="s">
+        <v>2314</v>
+      </c>
+      <c r="J367" s="50" t="s">
         <v>1951</v>
-      </c>
-      <c r="J367" s="50" t="s">
-        <v>1952</v>
       </c>
       <c r="K367" s="14"/>
       <c r="L367" s="14"/>
@@ -24964,13 +24933,13 @@
     </row>
     <row r="368" spans="1:25" ht="15.75" customHeight="1">
       <c r="A368" s="49" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B368" s="52" t="s">
         <v>1953</v>
       </c>
-      <c r="B368" s="52" t="s">
+      <c r="C368" s="50" t="s">
         <v>1954</v>
-      </c>
-      <c r="C368" s="50" t="s">
-        <v>1955</v>
       </c>
       <c r="D368" s="50">
         <v>1835</v>
@@ -24979,19 +24948,19 @@
         <v>1900</v>
       </c>
       <c r="F368" s="50" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G368" s="50" t="s">
         <v>1956</v>
       </c>
-      <c r="G368" s="50" t="s">
+      <c r="H368" s="52" t="s">
         <v>1957</v>
       </c>
-      <c r="H368" s="52" t="s">
+      <c r="I368" s="15" t="s">
         <v>1958</v>
       </c>
-      <c r="I368" s="15" t="s">
+      <c r="J368" s="50" t="s">
         <v>1959</v>
-      </c>
-      <c r="J368" s="50" t="s">
-        <v>1960</v>
       </c>
       <c r="K368" s="14"/>
       <c r="L368" s="14"/>
@@ -25011,11 +24980,11 @@
     </row>
     <row r="369" spans="1:25" ht="15.75" customHeight="1">
       <c r="A369" s="49" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B369" s="50"/>
       <c r="C369" s="50" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D369" s="50">
         <v>1869</v>
@@ -25027,16 +24996,16 @@
         <v>36</v>
       </c>
       <c r="G369" s="50" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H369" s="52" t="s">
         <v>1963</v>
       </c>
-      <c r="H369" s="52" t="s">
+      <c r="I369" s="16" t="s">
         <v>1964</v>
       </c>
-      <c r="I369" s="16" t="s">
+      <c r="J369" s="50" t="s">
         <v>1965</v>
-      </c>
-      <c r="J369" s="50" t="s">
-        <v>1966</v>
       </c>
       <c r="K369" s="14"/>
       <c r="L369" s="14"/>
@@ -25056,7 +25025,7 @@
     </row>
     <row r="370" spans="1:25" ht="15.75" customHeight="1">
       <c r="A370" s="51" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B370" s="52" t="s">
         <v>159</v>
@@ -25071,19 +25040,19 @@
         <v>1907</v>
       </c>
       <c r="F370" s="52" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G370" s="52" t="s">
         <v>1968</v>
       </c>
-      <c r="G370" s="52" t="s">
+      <c r="H370" s="52" t="s">
         <v>1969</v>
       </c>
-      <c r="H370" s="52" t="s">
+      <c r="I370" s="78" t="s">
         <v>1970</v>
       </c>
-      <c r="I370" s="78" t="s">
+      <c r="J370" s="52" t="s">
         <v>1971</v>
-      </c>
-      <c r="J370" s="52" t="s">
-        <v>1972</v>
       </c>
       <c r="K370" s="5"/>
       <c r="L370" s="5"/>
@@ -25103,7 +25072,7 @@
     </row>
     <row r="371" spans="1:25" ht="15.75" customHeight="1">
       <c r="A371" s="51" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B371" s="52" t="s">
         <v>911</v>
@@ -25118,19 +25087,19 @@
         <v>1921</v>
       </c>
       <c r="F371" s="52" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G371" s="52" t="s">
         <v>1974</v>
       </c>
-      <c r="G371" s="52" t="s">
+      <c r="H371" s="52" t="s">
         <v>1975</v>
       </c>
-      <c r="H371" s="52" t="s">
+      <c r="I371" s="28" t="s">
         <v>1976</v>
       </c>
-      <c r="I371" s="28" t="s">
+      <c r="J371" s="52" t="s">
         <v>1977</v>
-      </c>
-      <c r="J371" s="52" t="s">
-        <v>1978</v>
       </c>
       <c r="K371" s="5"/>
       <c r="L371" s="5"/>
@@ -25150,13 +25119,13 @@
     </row>
     <row r="372" spans="1:25" ht="15.75" customHeight="1">
       <c r="A372" s="20" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B372" s="19" t="s">
         <v>500</v>
       </c>
       <c r="C372" s="19" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D372" s="19">
         <v>1829</v>
@@ -25165,19 +25134,19 @@
         <v>1897</v>
       </c>
       <c r="F372" s="19" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="G372" s="19" t="s">
         <v>36</v>
       </c>
       <c r="H372" s="20" t="s">
+        <v>1980</v>
+      </c>
+      <c r="I372" s="70" t="s">
         <v>1981</v>
       </c>
-      <c r="I372" s="70" t="s">
+      <c r="J372" s="19" t="s">
         <v>1982</v>
-      </c>
-      <c r="J372" s="19" t="s">
-        <v>1983</v>
       </c>
       <c r="K372" s="11"/>
       <c r="L372" s="11"/>
@@ -25197,7 +25166,7 @@
     </row>
     <row r="373" spans="1:25" ht="15.75" customHeight="1">
       <c r="A373" s="53" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B373" s="54" t="s">
         <v>159</v>
@@ -25218,13 +25187,13 @@
         <v>609</v>
       </c>
       <c r="H373" s="56" t="s">
+        <v>1984</v>
+      </c>
+      <c r="I373" s="54" t="s">
         <v>1985</v>
       </c>
-      <c r="I373" s="54" t="s">
+      <c r="J373" s="57" t="s">
         <v>1986</v>
-      </c>
-      <c r="J373" s="57" t="s">
-        <v>1987</v>
       </c>
       <c r="K373" s="11"/>
       <c r="L373" s="11"/>
@@ -25244,10 +25213,10 @@
     </row>
     <row r="374" spans="1:25" ht="15.75" customHeight="1">
       <c r="A374" s="53" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B374" s="141" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="C374" s="54" t="s">
         <v>340</v>
@@ -25265,13 +25234,13 @@
         <v>1283</v>
       </c>
       <c r="H374" s="141" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="I374" s="48" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J374" s="57" t="s">
         <v>1989</v>
-      </c>
-      <c r="J374" s="57" t="s">
-        <v>1990</v>
       </c>
       <c r="K374" s="19"/>
       <c r="L374" s="19"/>
@@ -25291,11 +25260,11 @@
     </row>
     <row r="375" spans="1:25" ht="15.75" customHeight="1">
       <c r="A375" s="49" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B375" s="52"/>
       <c r="C375" s="52" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D375" s="52">
         <v>1815</v>
@@ -25304,19 +25273,19 @@
         <v>1905</v>
       </c>
       <c r="F375" s="52" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G375" s="52" t="s">
         <v>1993</v>
       </c>
-      <c r="G375" s="52" t="s">
+      <c r="H375" s="52" t="s">
         <v>1994</v>
       </c>
-      <c r="H375" s="52" t="s">
+      <c r="I375" s="16" t="s">
         <v>1995</v>
       </c>
-      <c r="I375" s="16" t="s">
+      <c r="J375" s="52" t="s">
         <v>1996</v>
-      </c>
-      <c r="J375" s="52" t="s">
-        <v>1997</v>
       </c>
       <c r="K375" s="5"/>
       <c r="L375" s="5"/>
@@ -25336,7 +25305,7 @@
     </row>
     <row r="376" spans="1:25" ht="15.75" customHeight="1">
       <c r="A376" s="51" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B376" s="52" t="s">
         <v>400</v>
@@ -25348,22 +25317,22 @@
         <v>1859</v>
       </c>
       <c r="E376" s="52" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F376" s="52" t="s">
         <v>1999</v>
-      </c>
-      <c r="F376" s="52" t="s">
-        <v>2000</v>
       </c>
       <c r="G376" s="52" t="s">
         <v>36</v>
       </c>
       <c r="H376" s="52" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I376" s="6" t="s">
         <v>2001</v>
       </c>
-      <c r="I376" s="6" t="s">
+      <c r="J376" s="52" t="s">
         <v>2002</v>
-      </c>
-      <c r="J376" s="52" t="s">
-        <v>2003</v>
       </c>
       <c r="K376" s="5"/>
       <c r="L376" s="5"/>
@@ -25383,13 +25352,13 @@
     </row>
     <row r="377" spans="1:25" ht="15.75" customHeight="1">
       <c r="A377" s="51" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B377" s="52" t="s">
         <v>2004</v>
       </c>
-      <c r="B377" s="52" t="s">
+      <c r="C377" s="52" t="s">
         <v>2005</v>
-      </c>
-      <c r="C377" s="52" t="s">
-        <v>2006</v>
       </c>
       <c r="D377" s="52">
         <v>1630</v>
@@ -25404,13 +25373,13 @@
         <v>453</v>
       </c>
       <c r="H377" s="52" t="s">
+        <v>2006</v>
+      </c>
+      <c r="I377" s="24" t="s">
         <v>2007</v>
       </c>
-      <c r="I377" s="24" t="s">
+      <c r="J377" s="52" t="s">
         <v>2008</v>
-      </c>
-      <c r="J377" s="52" t="s">
-        <v>2009</v>
       </c>
       <c r="K377" s="5"/>
       <c r="L377" s="5"/>
@@ -25430,7 +25399,7 @@
     </row>
     <row r="378" spans="1:25" ht="15.75" customHeight="1">
       <c r="A378" s="51" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B378" s="52" t="s">
         <v>33</v>
@@ -25445,19 +25414,19 @@
         <v>1909</v>
       </c>
       <c r="F378" s="52" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G378" s="52" t="s">
         <v>2011</v>
       </c>
-      <c r="G378" s="52" t="s">
+      <c r="H378" s="52" t="s">
         <v>2012</v>
       </c>
-      <c r="H378" s="52" t="s">
+      <c r="I378" s="40" t="s">
         <v>2013</v>
       </c>
-      <c r="I378" s="40" t="s">
+      <c r="J378" s="52" t="s">
         <v>2014</v>
-      </c>
-      <c r="J378" s="52" t="s">
-        <v>2015</v>
       </c>
       <c r="K378" s="5"/>
       <c r="L378" s="5"/>
@@ -25477,13 +25446,13 @@
     </row>
     <row r="379" spans="1:25" ht="15.75" customHeight="1">
       <c r="A379" s="51" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B379" s="52" t="s">
         <v>2016</v>
       </c>
-      <c r="B379" s="52" t="s">
+      <c r="C379" s="52" t="s">
         <v>2017</v>
-      </c>
-      <c r="C379" s="52" t="s">
-        <v>2018</v>
       </c>
       <c r="D379" s="52">
         <v>1849</v>
@@ -25495,16 +25464,16 @@
         <v>99</v>
       </c>
       <c r="G379" s="52" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H379" s="116" t="s">
         <v>2019</v>
       </c>
-      <c r="H379" s="116" t="s">
+      <c r="I379" s="40" t="s">
         <v>2020</v>
       </c>
-      <c r="I379" s="40" t="s">
+      <c r="J379" s="52" t="s">
         <v>2021</v>
-      </c>
-      <c r="J379" s="52" t="s">
-        <v>2022</v>
       </c>
       <c r="K379" s="5"/>
       <c r="L379" s="5"/>
@@ -25524,7 +25493,7 @@
     </row>
     <row r="380" spans="1:25" ht="15.75" customHeight="1">
       <c r="A380" s="51" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B380" s="52" t="s">
         <v>116</v>
@@ -25539,19 +25508,19 @@
         <v>1895</v>
       </c>
       <c r="F380" s="52" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G380" s="52" t="s">
         <v>36</v>
       </c>
       <c r="H380" s="52" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I380" s="15" t="s">
         <v>2025</v>
       </c>
-      <c r="I380" s="15" t="s">
+      <c r="J380" s="52" t="s">
         <v>2026</v>
-      </c>
-      <c r="J380" s="52" t="s">
-        <v>2027</v>
       </c>
       <c r="K380" s="5"/>
       <c r="L380" s="5"/>
@@ -25571,11 +25540,11 @@
     </row>
     <row r="381" spans="1:25" ht="15.75" customHeight="1">
       <c r="A381" s="51" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B381" s="52"/>
       <c r="C381" s="52" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D381" s="52">
         <v>1730</v>
@@ -25584,19 +25553,19 @@
         <v>1800</v>
       </c>
       <c r="F381" s="52" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G381" s="52" t="s">
         <v>2030</v>
       </c>
-      <c r="G381" s="52" t="s">
+      <c r="H381" s="52" t="s">
         <v>2031</v>
       </c>
-      <c r="H381" s="52" t="s">
+      <c r="I381" s="36" t="s">
         <v>2032</v>
       </c>
-      <c r="I381" s="36" t="s">
+      <c r="J381" s="52" t="s">
         <v>2033</v>
-      </c>
-      <c r="J381" s="52" t="s">
-        <v>2034</v>
       </c>
       <c r="K381" s="5"/>
       <c r="L381" s="5"/>
@@ -25616,7 +25585,7 @@
     </row>
     <row r="382" spans="1:25" ht="15.75" customHeight="1">
       <c r="A382" s="51" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B382" s="52" t="s">
         <v>33</v>
@@ -25629,11 +25598,11 @@
       <c r="F382" s="52"/>
       <c r="G382" s="52"/>
       <c r="H382" s="52" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="I382" s="16"/>
       <c r="J382" s="52" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="K382" s="5"/>
       <c r="L382" s="5"/>
@@ -25653,13 +25622,13 @@
     </row>
     <row r="383" spans="1:25" ht="15.75" customHeight="1">
       <c r="A383" s="51" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B383" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C383" s="52" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D383" s="52">
         <v>1832</v>
@@ -25671,16 +25640,16 @@
         <v>110</v>
       </c>
       <c r="G383" s="52" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H383" s="52" t="s">
         <v>2040</v>
       </c>
-      <c r="H383" s="52" t="s">
+      <c r="I383" s="44" t="s">
         <v>2041</v>
       </c>
-      <c r="I383" s="44" t="s">
+      <c r="J383" s="52" t="s">
         <v>2042</v>
-      </c>
-      <c r="J383" s="52" t="s">
-        <v>2043</v>
       </c>
       <c r="K383" s="5"/>
       <c r="L383" s="5"/>
@@ -25700,11 +25669,11 @@
     </row>
     <row r="384" spans="1:25" ht="15.75" customHeight="1">
       <c r="A384" s="51" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B384" s="52"/>
       <c r="C384" s="52" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D384" s="52">
         <v>1843</v>
@@ -25713,19 +25682,19 @@
         <v>1915</v>
       </c>
       <c r="F384" s="52" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G384" s="52" t="s">
         <v>2046</v>
       </c>
-      <c r="G384" s="52" t="s">
+      <c r="H384" s="52" t="s">
         <v>2047</v>
       </c>
-      <c r="H384" s="52" t="s">
+      <c r="I384" s="117" t="s">
         <v>2048</v>
       </c>
-      <c r="I384" s="117" t="s">
+      <c r="J384" s="52" t="s">
         <v>2049</v>
-      </c>
-      <c r="J384" s="52" t="s">
-        <v>2050</v>
       </c>
       <c r="K384" s="5"/>
       <c r="L384" s="5"/>
@@ -25745,13 +25714,13 @@
     </row>
     <row r="385" spans="1:26" ht="15.75" customHeight="1">
       <c r="A385" s="51" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B385" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C385" s="52" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D385" s="102">
         <v>1865</v>
@@ -25760,17 +25729,17 @@
         <v>1933</v>
       </c>
       <c r="F385" s="102" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="G385" s="102" t="s">
         <v>61</v>
       </c>
       <c r="H385" s="52" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="I385" s="52"/>
       <c r="J385" s="52" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K385" s="5"/>
       <c r="L385" s="5"/>
@@ -25791,11 +25760,11 @@
     </row>
     <row r="386" spans="1:26" ht="15.75" customHeight="1">
       <c r="A386" s="51" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B386" s="52"/>
       <c r="C386" s="52" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D386" s="99">
         <v>1818</v>
@@ -25804,19 +25773,19 @@
         <v>1900</v>
       </c>
       <c r="F386" s="99" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G386" s="99" t="s">
         <v>2058</v>
       </c>
-      <c r="G386" s="99" t="s">
+      <c r="H386" s="142" t="s">
+        <v>2307</v>
+      </c>
+      <c r="I386" s="101" t="s">
         <v>2059</v>
       </c>
-      <c r="H386" s="142" t="s">
-        <v>2309</v>
-      </c>
-      <c r="I386" s="101" t="s">
+      <c r="J386" s="52" t="s">
         <v>2060</v>
-      </c>
-      <c r="J386" s="52" t="s">
-        <v>2061</v>
       </c>
       <c r="K386" s="5"/>
       <c r="L386" s="5"/>
@@ -25837,13 +25806,13 @@
     </row>
     <row r="387" spans="1:26" ht="15.75" customHeight="1">
       <c r="A387" s="51" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B387" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C387" s="52" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D387" s="99">
         <v>1841</v>
@@ -25855,14 +25824,14 @@
         <v>36</v>
       </c>
       <c r="G387" s="99" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H387" s="52" t="s">
         <v>2064</v>
-      </c>
-      <c r="H387" s="52" t="s">
-        <v>2065</v>
       </c>
       <c r="I387" s="5"/>
       <c r="J387" s="52" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="K387" s="5"/>
       <c r="L387" s="5"/>
@@ -25883,13 +25852,13 @@
     </row>
     <row r="388" spans="1:26" ht="15.75" customHeight="1">
       <c r="A388" s="51" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B388" s="52" t="s">
         <v>2067</v>
       </c>
-      <c r="B388" s="52" t="s">
+      <c r="C388" s="52" t="s">
         <v>2068</v>
-      </c>
-      <c r="C388" s="52" t="s">
-        <v>2069</v>
       </c>
       <c r="D388" s="52">
         <v>1861</v>
@@ -25898,19 +25867,19 @@
         <v>1941</v>
       </c>
       <c r="F388" s="52" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G388" s="52" t="s">
         <v>61</v>
       </c>
       <c r="H388" s="52" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I388" s="16" t="s">
         <v>2071</v>
       </c>
-      <c r="I388" s="16" t="s">
+      <c r="J388" s="52" t="s">
         <v>2072</v>
-      </c>
-      <c r="J388" s="52" t="s">
-        <v>2073</v>
       </c>
       <c r="K388" s="5"/>
       <c r="L388" s="5"/>
@@ -25930,7 +25899,7 @@
     </row>
     <row r="389" spans="1:26" ht="15.75" customHeight="1">
       <c r="A389" s="51" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B389" s="52" t="s">
         <v>58</v>
@@ -25948,16 +25917,16 @@
         <v>36</v>
       </c>
       <c r="G389" s="52" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H389" s="52" t="s">
         <v>2075</v>
       </c>
-      <c r="H389" s="52" t="s">
+      <c r="I389" s="6" t="s">
         <v>2076</v>
       </c>
-      <c r="I389" s="6" t="s">
+      <c r="J389" s="52" t="s">
         <v>2077</v>
-      </c>
-      <c r="J389" s="52" t="s">
-        <v>2078</v>
       </c>
       <c r="K389" s="5"/>
       <c r="L389" s="5"/>
@@ -25977,28 +25946,28 @@
     </row>
     <row r="390" spans="1:26" ht="15.75" customHeight="1">
       <c r="A390" s="118" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B390" s="19"/>
       <c r="C390" s="20" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D390" s="19" t="s">
         <v>2080</v>
       </c>
-      <c r="D390" s="19" t="s">
+      <c r="E390" s="19" t="s">
         <v>2081</v>
-      </c>
-      <c r="E390" s="19" t="s">
-        <v>2082</v>
       </c>
       <c r="F390" s="19"/>
       <c r="G390" s="19"/>
       <c r="H390" s="20" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I390" s="19" t="s">
         <v>2083</v>
       </c>
-      <c r="I390" s="19" t="s">
-        <v>2084</v>
-      </c>
       <c r="J390" s="20" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K390" s="11"/>
       <c r="L390" s="11"/>
@@ -26018,13 +25987,13 @@
     </row>
     <row r="391" spans="1:26" ht="15.75" customHeight="1">
       <c r="A391" s="119" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B391" s="54" t="s">
         <v>1707</v>
       </c>
       <c r="C391" s="56" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D391" s="54">
         <v>1754</v>
@@ -26039,13 +26008,13 @@
         <v>288</v>
       </c>
       <c r="H391" s="141" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="I391" s="54" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J391" s="71" t="s">
         <v>2087</v>
-      </c>
-      <c r="J391" s="71" t="s">
-        <v>2088</v>
       </c>
       <c r="K391" s="11"/>
       <c r="L391" s="11"/>
@@ -26065,7 +26034,7 @@
     </row>
     <row r="392" spans="1:26" ht="15.75" customHeight="1">
       <c r="A392" s="5" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B392" s="5"/>
       <c r="C392" s="5" t="s">
@@ -26078,19 +26047,19 @@
         <v>1939</v>
       </c>
       <c r="F392" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="H392" s="5" t="s">
         <v>2090</v>
       </c>
-      <c r="G392" s="5" t="s">
-        <v>2090</v>
-      </c>
-      <c r="H392" s="5" t="s">
+      <c r="I392" s="13" t="s">
         <v>2091</v>
       </c>
-      <c r="I392" s="13" t="s">
+      <c r="J392" s="5" t="s">
         <v>2092</v>
-      </c>
-      <c r="J392" s="5" t="s">
-        <v>2093</v>
       </c>
       <c r="K392" s="5"/>
       <c r="L392" s="5"/>
@@ -26110,7 +26079,7 @@
     </row>
     <row r="393" spans="1:26" ht="15.75" customHeight="1">
       <c r="A393" s="51" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B393" s="52" t="s">
         <v>58</v>
@@ -26125,19 +26094,19 @@
         <v>1927</v>
       </c>
       <c r="F393" s="52" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G393" s="52" t="s">
+        <v>2093</v>
+      </c>
+      <c r="H393" s="52" t="s">
         <v>2094</v>
       </c>
-      <c r="G393" s="52" t="s">
-        <v>2094</v>
-      </c>
-      <c r="H393" s="52" t="s">
+      <c r="I393" s="6" t="s">
         <v>2095</v>
       </c>
-      <c r="I393" s="6" t="s">
+      <c r="J393" s="52" t="s">
         <v>2096</v>
-      </c>
-      <c r="J393" s="52" t="s">
-        <v>2097</v>
       </c>
       <c r="K393" s="5"/>
       <c r="L393" s="5"/>
@@ -26157,10 +26126,10 @@
     </row>
     <row r="394" spans="1:26" ht="15.75" customHeight="1">
       <c r="A394" s="51" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B394" s="52" t="s">
         <v>2098</v>
-      </c>
-      <c r="B394" s="52" t="s">
-        <v>2099</v>
       </c>
       <c r="C394" s="52" t="s">
         <v>17</v>
@@ -26172,19 +26141,19 @@
         <v>1916</v>
       </c>
       <c r="F394" s="52" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G394" s="52" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H394" s="52" t="s">
         <v>2100</v>
       </c>
-      <c r="G394" s="52" t="s">
-        <v>2100</v>
-      </c>
-      <c r="H394" s="52" t="s">
+      <c r="I394" s="6" t="s">
         <v>2101</v>
       </c>
-      <c r="I394" s="6" t="s">
+      <c r="J394" s="52" t="s">
         <v>2102</v>
-      </c>
-      <c r="J394" s="52" t="s">
-        <v>2103</v>
       </c>
       <c r="K394" s="5"/>
       <c r="L394" s="5"/>
@@ -26204,13 +26173,13 @@
     </row>
     <row r="395" spans="1:26" ht="15.75" customHeight="1">
       <c r="A395" s="51" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B395" s="52" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C395" s="52" t="s">
         <v>2104</v>
-      </c>
-      <c r="C395" s="52" t="s">
-        <v>2105</v>
       </c>
       <c r="D395" s="52">
         <v>1854</v>
@@ -26219,19 +26188,19 @@
         <v>1898</v>
       </c>
       <c r="F395" s="52" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G395" s="52" t="s">
         <v>36</v>
       </c>
       <c r="H395" s="52" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I395" s="15" t="s">
         <v>2107</v>
       </c>
-      <c r="I395" s="15" t="s">
+      <c r="J395" s="52" t="s">
         <v>2108</v>
-      </c>
-      <c r="J395" s="52" t="s">
-        <v>2109</v>
       </c>
       <c r="K395" s="5"/>
       <c r="L395" s="5"/>
@@ -26251,13 +26220,13 @@
     </row>
     <row r="396" spans="1:26" ht="15.75" customHeight="1">
       <c r="A396" s="51" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B396" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C396" s="52" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D396" s="52">
         <v>1849</v>
@@ -26266,19 +26235,19 @@
         <v>1913</v>
       </c>
       <c r="F396" s="52" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G396" s="52" t="s">
         <v>36</v>
       </c>
       <c r="H396" s="52" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I396" s="6" t="s">
         <v>2112</v>
       </c>
-      <c r="I396" s="6" t="s">
+      <c r="J396" s="52" t="s">
         <v>2113</v>
-      </c>
-      <c r="J396" s="52" t="s">
-        <v>2114</v>
       </c>
       <c r="K396" s="5"/>
       <c r="L396" s="5"/>
@@ -26298,11 +26267,11 @@
     </row>
     <row r="397" spans="1:26" ht="15.75" customHeight="1">
       <c r="A397" s="98" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B397" s="99"/>
       <c r="C397" s="99" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D397" s="99">
         <v>1830</v>
@@ -26311,19 +26280,19 @@
         <v>1902</v>
       </c>
       <c r="F397" s="99" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="G397" s="99" t="s">
         <v>61</v>
       </c>
       <c r="H397" s="99" t="s">
+        <v>2117</v>
+      </c>
+      <c r="I397" s="45" t="s">
         <v>2118</v>
       </c>
-      <c r="I397" s="45" t="s">
+      <c r="J397" s="52" t="s">
         <v>2119</v>
-      </c>
-      <c r="J397" s="52" t="s">
-        <v>2120</v>
       </c>
       <c r="K397" s="5"/>
       <c r="L397" s="5"/>
@@ -26343,7 +26312,7 @@
     </row>
     <row r="398" spans="1:26" ht="15.75" customHeight="1">
       <c r="A398" s="51" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B398" s="52" t="s">
         <v>58</v>
@@ -26355,7 +26324,7 @@
         <v>1861</v>
       </c>
       <c r="E398" s="52" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="F398" s="52" t="s">
         <v>61</v>
@@ -26364,13 +26333,13 @@
         <v>61</v>
       </c>
       <c r="H398" s="52" t="s">
+        <v>2122</v>
+      </c>
+      <c r="I398" s="16" t="s">
         <v>2123</v>
       </c>
-      <c r="I398" s="16" t="s">
+      <c r="J398" s="52" t="s">
         <v>2124</v>
-      </c>
-      <c r="J398" s="52" t="s">
-        <v>2125</v>
       </c>
       <c r="K398" s="5"/>
       <c r="L398" s="5"/>
@@ -26390,7 +26359,7 @@
     </row>
     <row r="399" spans="1:26" ht="15.75" customHeight="1">
       <c r="A399" s="51" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B399" s="52" t="s">
         <v>911</v>
@@ -26405,19 +26374,19 @@
         <v>1926</v>
       </c>
       <c r="F399" s="52" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="G399" s="52" t="s">
         <v>550</v>
       </c>
       <c r="H399" s="52" t="s">
+        <v>2127</v>
+      </c>
+      <c r="I399" s="16" t="s">
         <v>2128</v>
       </c>
-      <c r="I399" s="16" t="s">
+      <c r="J399" s="52" t="s">
         <v>2129</v>
-      </c>
-      <c r="J399" s="52" t="s">
-        <v>2130</v>
       </c>
       <c r="K399" s="5"/>
       <c r="L399" s="5"/>
@@ -26437,13 +26406,13 @@
     </row>
     <row r="400" spans="1:26" ht="15.75" customHeight="1">
       <c r="A400" s="51" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B400" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C400" s="52" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D400" s="52">
         <v>1840</v>
@@ -26452,19 +26421,19 @@
         <v>1889</v>
       </c>
       <c r="F400" s="52" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G400" s="52" t="s">
         <v>36</v>
       </c>
       <c r="H400" s="52" t="s">
+        <v>2133</v>
+      </c>
+      <c r="I400" s="18" t="s">
         <v>2134</v>
       </c>
-      <c r="I400" s="18" t="s">
+      <c r="J400" s="52" t="s">
         <v>2135</v>
-      </c>
-      <c r="J400" s="52" t="s">
-        <v>2136</v>
       </c>
       <c r="K400" s="5"/>
       <c r="L400" s="5"/>
@@ -26484,10 +26453,10 @@
     </row>
     <row r="401" spans="1:25" ht="15.75" customHeight="1">
       <c r="A401" s="58" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B401" s="59" t="s">
         <v>2137</v>
-      </c>
-      <c r="B401" s="59" t="s">
-        <v>2138</v>
       </c>
       <c r="C401" s="59" t="s">
         <v>340</v>
@@ -26499,17 +26468,17 @@
         <v>1921</v>
       </c>
       <c r="F401" s="59" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G401" s="59" t="s">
         <v>2139</v>
       </c>
-      <c r="G401" s="59" t="s">
+      <c r="H401" s="59" t="s">
         <v>2140</v>
-      </c>
-      <c r="H401" s="59" t="s">
-        <v>2141</v>
       </c>
       <c r="I401" s="59"/>
       <c r="J401" s="59" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="K401" s="5"/>
       <c r="L401" s="5"/>
@@ -26529,11 +26498,11 @@
     </row>
     <row r="402" spans="1:25" ht="15.75" customHeight="1">
       <c r="A402" s="120" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B402" s="121"/>
       <c r="C402" s="121" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D402" s="121">
         <v>1827</v>
@@ -26542,17 +26511,17 @@
         <v>1902</v>
       </c>
       <c r="F402" s="121" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G402" s="121" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H402" s="121" t="s">
         <v>2145</v>
-      </c>
-      <c r="G402" s="121" t="s">
-        <v>2145</v>
-      </c>
-      <c r="H402" s="121" t="s">
-        <v>2146</v>
       </c>
       <c r="I402" s="122"/>
       <c r="J402" s="123" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="K402" s="85"/>
       <c r="L402" s="85"/>
@@ -26572,13 +26541,13 @@
     </row>
     <row r="403" spans="1:25" ht="15.75" customHeight="1">
       <c r="A403" s="120" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B403" s="121" t="s">
         <v>159</v>
       </c>
       <c r="C403" s="121" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D403" s="121">
         <v>1843</v>
@@ -26593,13 +26562,13 @@
         <v>35</v>
       </c>
       <c r="H403" s="121" t="s">
+        <v>2149</v>
+      </c>
+      <c r="I403" s="122" t="s">
         <v>2150</v>
       </c>
-      <c r="I403" s="122" t="s">
+      <c r="J403" s="123" t="s">
         <v>2151</v>
-      </c>
-      <c r="J403" s="123" t="s">
-        <v>2152</v>
       </c>
       <c r="K403" s="85"/>
       <c r="L403" s="85"/>
@@ -26619,10 +26588,10 @@
     </row>
     <row r="404" spans="1:25" ht="15.75" customHeight="1">
       <c r="A404" s="120" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B404" s="121" t="s">
         <v>2153</v>
-      </c>
-      <c r="B404" s="121" t="s">
-        <v>2154</v>
       </c>
       <c r="C404" s="121" t="s">
         <v>430</v>
@@ -26640,13 +26609,13 @@
         <v>36</v>
       </c>
       <c r="H404" s="121" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I404" s="18" t="s">
         <v>2155</v>
       </c>
-      <c r="I404" s="18" t="s">
+      <c r="J404" s="123" t="s">
         <v>2156</v>
-      </c>
-      <c r="J404" s="123" t="s">
-        <v>2157</v>
       </c>
       <c r="K404" s="85"/>
       <c r="L404" s="85"/>
@@ -26666,13 +26635,13 @@
     </row>
     <row r="405" spans="1:25" ht="15.75" customHeight="1">
       <c r="A405" s="120" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B405" s="121" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C405" s="121" t="s">
         <v>2158</v>
-      </c>
-      <c r="C405" s="121" t="s">
-        <v>2159</v>
       </c>
       <c r="D405" s="121">
         <v>1840</v>
@@ -26683,13 +26652,13 @@
       <c r="F405" s="121"/>
       <c r="G405" s="121"/>
       <c r="H405" s="121" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I405" s="15" t="s">
         <v>2160</v>
       </c>
-      <c r="I405" s="15" t="s">
+      <c r="J405" s="123" t="s">
         <v>2161</v>
-      </c>
-      <c r="J405" s="123" t="s">
-        <v>2162</v>
       </c>
       <c r="K405" s="85"/>
       <c r="L405" s="85"/>
@@ -26709,7 +26678,7 @@
     </row>
     <row r="406" spans="1:25" ht="15.75" customHeight="1">
       <c r="A406" s="120" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B406" s="121" t="s">
         <v>33</v>
@@ -26730,13 +26699,13 @@
         <v>35</v>
       </c>
       <c r="H406" s="121" t="s">
+        <v>2163</v>
+      </c>
+      <c r="I406" s="16" t="s">
         <v>2164</v>
       </c>
-      <c r="I406" s="16" t="s">
+      <c r="J406" s="123" t="s">
         <v>2165</v>
-      </c>
-      <c r="J406" s="123" t="s">
-        <v>2166</v>
       </c>
       <c r="K406" s="85"/>
       <c r="L406" s="85"/>
@@ -26756,7 +26725,7 @@
     </row>
     <row r="407" spans="1:25" ht="15.75" customHeight="1">
       <c r="A407" s="124" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B407" s="125"/>
       <c r="C407" s="125" t="s">
@@ -26769,19 +26738,19 @@
         <v>1907</v>
       </c>
       <c r="F407" s="125" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G407" s="125" t="s">
         <v>61</v>
       </c>
       <c r="H407" s="125" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I407" s="16" t="s">
         <v>2169</v>
       </c>
-      <c r="I407" s="16" t="s">
+      <c r="J407" s="126" t="s">
         <v>2170</v>
-      </c>
-      <c r="J407" s="126" t="s">
-        <v>2171</v>
       </c>
       <c r="K407" s="85"/>
       <c r="L407" s="85"/>
@@ -26801,7 +26770,7 @@
     </row>
     <row r="408" spans="1:25" ht="15.75" customHeight="1">
       <c r="A408" s="127" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B408" s="125"/>
       <c r="C408" s="125" t="s">
@@ -26814,19 +26783,19 @@
         <v>1940</v>
       </c>
       <c r="F408" s="125" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="G408" s="125" t="s">
         <v>61</v>
       </c>
       <c r="H408" s="125" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I408" s="16" t="s">
         <v>2173</v>
       </c>
-      <c r="I408" s="16" t="s">
+      <c r="J408" s="126" t="s">
         <v>2174</v>
-      </c>
-      <c r="J408" s="126" t="s">
-        <v>2175</v>
       </c>
       <c r="K408" s="85"/>
       <c r="L408" s="85"/>
@@ -26846,13 +26815,13 @@
     </row>
     <row r="409" spans="1:25" ht="15.75" customHeight="1">
       <c r="A409" s="127" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B409" s="125" t="s">
         <v>2176</v>
       </c>
-      <c r="B409" s="125" t="s">
+      <c r="C409" s="125" t="s">
         <v>2177</v>
-      </c>
-      <c r="C409" s="125" t="s">
-        <v>2178</v>
       </c>
       <c r="D409" s="125">
         <v>1856</v>
@@ -26864,16 +26833,16 @@
         <v>141</v>
       </c>
       <c r="G409" s="125" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H409" s="125" t="s">
         <v>2179</v>
       </c>
-      <c r="H409" s="125" t="s">
+      <c r="I409" s="16" t="s">
         <v>2180</v>
       </c>
-      <c r="I409" s="16" t="s">
+      <c r="J409" s="126" t="s">
         <v>2181</v>
-      </c>
-      <c r="J409" s="126" t="s">
-        <v>2182</v>
       </c>
       <c r="K409" s="85"/>
       <c r="L409" s="85"/>
@@ -26893,13 +26862,13 @@
     </row>
     <row r="410" spans="1:25" ht="15.75" customHeight="1">
       <c r="A410" s="127" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B410" s="125" t="s">
         <v>2183</v>
       </c>
-      <c r="B410" s="125" t="s">
+      <c r="C410" s="125" t="s">
         <v>2184</v>
-      </c>
-      <c r="C410" s="125" t="s">
-        <v>2185</v>
       </c>
       <c r="D410" s="125">
         <v>1628</v>
@@ -26911,16 +26880,16 @@
         <v>453</v>
       </c>
       <c r="G410" s="125" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H410" s="125" t="s">
         <v>2186</v>
       </c>
-      <c r="H410" s="125" t="s">
+      <c r="I410" s="36" t="s">
         <v>2187</v>
       </c>
-      <c r="I410" s="36" t="s">
+      <c r="J410" s="126" t="s">
         <v>2188</v>
-      </c>
-      <c r="J410" s="126" t="s">
-        <v>2189</v>
       </c>
       <c r="K410" s="85"/>
       <c r="L410" s="85"/>
@@ -26940,10 +26909,10 @@
     </row>
     <row r="411" spans="1:25" ht="15.75" customHeight="1">
       <c r="A411" s="120" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B411" s="121" t="s">
         <v>2190</v>
-      </c>
-      <c r="B411" s="121" t="s">
-        <v>2191</v>
       </c>
       <c r="C411" s="123" t="s">
         <v>1435</v>
@@ -26955,19 +26924,19 @@
         <v>1925</v>
       </c>
       <c r="F411" s="125" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="G411" s="123" t="s">
         <v>61</v>
       </c>
       <c r="H411" s="123" t="s">
+        <v>2192</v>
+      </c>
+      <c r="I411" s="16" t="s">
         <v>2193</v>
       </c>
-      <c r="I411" s="16" t="s">
+      <c r="J411" s="128" t="s">
         <v>2194</v>
-      </c>
-      <c r="J411" s="128" t="s">
-        <v>2195</v>
       </c>
       <c r="K411" s="85"/>
       <c r="L411" s="85"/>
@@ -26987,7 +26956,7 @@
     </row>
     <row r="412" spans="1:25" ht="15.75" customHeight="1">
       <c r="A412" s="19" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="19" t="s">
@@ -27000,17 +26969,17 @@
         <v>1917</v>
       </c>
       <c r="F412" s="19" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G412" s="19" t="s">
         <v>2197</v>
       </c>
-      <c r="G412" s="19" t="s">
+      <c r="H412" s="20" t="s">
         <v>2198</v>
-      </c>
-      <c r="H412" s="20" t="s">
-        <v>2199</v>
       </c>
       <c r="I412" s="130"/>
       <c r="J412" s="19" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="K412" s="11"/>
       <c r="L412" s="11"/>
@@ -27030,10 +26999,10 @@
     </row>
     <row r="413" spans="1:25" ht="15.75" customHeight="1">
       <c r="A413" s="53" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B413" s="141" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C413" s="54" t="s">
         <v>430</v>
@@ -27045,19 +27014,19 @@
         <v>1899</v>
       </c>
       <c r="F413" s="54" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="G413" s="54" t="s">
         <v>94</v>
       </c>
       <c r="H413" s="56" t="s">
+        <v>2202</v>
+      </c>
+      <c r="I413" s="132" t="s">
         <v>2203</v>
       </c>
-      <c r="I413" s="132" t="s">
+      <c r="J413" s="57" t="s">
         <v>2204</v>
-      </c>
-      <c r="J413" s="57" t="s">
-        <v>2205</v>
       </c>
       <c r="K413" s="11"/>
       <c r="L413" s="11"/>
@@ -27077,7 +27046,7 @@
     </row>
     <row r="414" spans="1:25" ht="15.75" customHeight="1">
       <c r="A414" s="133" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B414" s="55" t="s">
         <v>500</v>
@@ -27094,13 +27063,13 @@
       <c r="F414" s="55"/>
       <c r="G414" s="55"/>
       <c r="H414" s="134" t="s">
+        <v>2206</v>
+      </c>
+      <c r="I414" s="9" t="s">
         <v>2207</v>
       </c>
-      <c r="I414" s="9" t="s">
+      <c r="J414" s="135" t="s">
         <v>2208</v>
-      </c>
-      <c r="J414" s="135" t="s">
-        <v>2209</v>
       </c>
       <c r="K414" s="11"/>
       <c r="L414" s="11"/>
@@ -27120,11 +27089,11 @@
     </row>
     <row r="415" spans="1:25" ht="15.75" customHeight="1">
       <c r="A415" s="51" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B415" s="52"/>
       <c r="C415" s="52" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D415" s="52">
         <v>1848</v>
@@ -27133,19 +27102,19 @@
         <v>1921</v>
       </c>
       <c r="F415" s="52" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="G415" s="52" t="s">
         <v>61</v>
       </c>
       <c r="H415" s="52" t="s">
+        <v>2212</v>
+      </c>
+      <c r="I415" s="16" t="s">
         <v>2213</v>
       </c>
-      <c r="I415" s="16" t="s">
+      <c r="J415" s="52" t="s">
         <v>2214</v>
-      </c>
-      <c r="J415" s="52" t="s">
-        <v>2215</v>
       </c>
       <c r="K415" s="5"/>
       <c r="L415" s="5"/>
@@ -27165,13 +27134,13 @@
     </row>
     <row r="416" spans="1:25" ht="15.75" customHeight="1">
       <c r="A416" s="53" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B416" s="56" t="s">
         <v>2216</v>
       </c>
-      <c r="B416" s="56" t="s">
+      <c r="C416" s="54" t="s">
         <v>2217</v>
-      </c>
-      <c r="C416" s="54" t="s">
-        <v>2218</v>
       </c>
       <c r="D416" s="54">
         <v>1835</v>
@@ -27183,16 +27152,16 @@
         <v>99</v>
       </c>
       <c r="G416" s="54" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H416" s="56" t="s">
         <v>2219</v>
       </c>
-      <c r="H416" s="56" t="s">
+      <c r="I416" s="9" t="s">
         <v>2220</v>
       </c>
-      <c r="I416" s="9" t="s">
+      <c r="J416" s="57" t="s">
         <v>2221</v>
-      </c>
-      <c r="J416" s="57" t="s">
-        <v>2222</v>
       </c>
       <c r="K416" s="19"/>
       <c r="L416" s="19"/>
@@ -27212,7 +27181,7 @@
     </row>
     <row r="417" spans="1:26" ht="15.75" customHeight="1">
       <c r="A417" s="5" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B417" s="5" t="s">
         <v>1235</v>
@@ -27227,19 +27196,19 @@
         <v>1879</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="G417" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H417" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="I417" s="16" t="s">
         <v>2225</v>
       </c>
-      <c r="I417" s="16" t="s">
+      <c r="J417" s="5" t="s">
         <v>2226</v>
-      </c>
-      <c r="J417" s="5" t="s">
-        <v>2227</v>
       </c>
       <c r="K417" s="5"/>
       <c r="L417" s="5"/>
@@ -27259,10 +27228,10 @@
     </row>
     <row r="418" spans="1:26" ht="15.75" customHeight="1">
       <c r="A418" s="5" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B418" s="5" t="s">
         <v>2228</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>2229</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>718</v>
@@ -27274,19 +27243,19 @@
         <v>1945</v>
       </c>
       <c r="F418" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="H418" s="5" t="s">
         <v>2230</v>
       </c>
-      <c r="G418" s="5" t="s">
-        <v>2230</v>
-      </c>
-      <c r="H418" s="5" t="s">
+      <c r="I418" s="36" t="s">
         <v>2231</v>
       </c>
-      <c r="I418" s="36" t="s">
+      <c r="J418" s="5" t="s">
         <v>2232</v>
-      </c>
-      <c r="J418" s="5" t="s">
-        <v>2233</v>
       </c>
       <c r="K418" s="5"/>
       <c r="L418" s="5"/>
@@ -27306,7 +27275,7 @@
     </row>
     <row r="419" spans="1:26" ht="15.75" customHeight="1">
       <c r="A419" s="5" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -27315,11 +27284,11 @@
       <c r="F419" s="5"/>
       <c r="G419" s="5"/>
       <c r="H419" s="5" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="I419" s="16"/>
       <c r="J419" s="5" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="K419" s="5"/>
       <c r="L419" s="5"/>
@@ -27339,13 +27308,13 @@
     </row>
     <row r="420" spans="1:26" ht="15.75" customHeight="1">
       <c r="A420" s="51" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B420" s="52" t="s">
         <v>689</v>
       </c>
       <c r="C420" s="52" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D420" s="52">
         <v>1851</v>
@@ -27357,16 +27326,16 @@
         <v>35</v>
       </c>
       <c r="G420" s="52" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H420" s="142" t="s">
+        <v>2310</v>
+      </c>
+      <c r="I420" s="78" t="s">
         <v>2238</v>
       </c>
-      <c r="H420" s="142" t="s">
-        <v>2312</v>
-      </c>
-      <c r="I420" s="78" t="s">
+      <c r="J420" s="52" t="s">
         <v>2239</v>
-      </c>
-      <c r="J420" s="52" t="s">
-        <v>2240</v>
       </c>
       <c r="K420" s="5"/>
       <c r="L420" s="5"/>
@@ -27386,10 +27355,10 @@
     </row>
     <row r="421" spans="1:26" ht="15.75" customHeight="1">
       <c r="A421" s="53" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B421" s="141" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="C421" s="54" t="s">
         <v>412</v>
@@ -27407,13 +27376,13 @@
         <v>36</v>
       </c>
       <c r="H421" s="56" t="s">
+        <v>2241</v>
+      </c>
+      <c r="I421" s="9" t="s">
         <v>2242</v>
       </c>
-      <c r="I421" s="9" t="s">
+      <c r="J421" s="57" t="s">
         <v>2243</v>
-      </c>
-      <c r="J421" s="57" t="s">
-        <v>2244</v>
       </c>
       <c r="K421" s="11"/>
       <c r="L421" s="11"/>
@@ -27433,11 +27402,11 @@
     </row>
     <row r="422" spans="1:26" ht="15.75" customHeight="1">
       <c r="A422" s="51" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B422" s="52"/>
       <c r="C422" s="52" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D422" s="52">
         <v>1862</v>
@@ -27452,13 +27421,13 @@
         <v>36</v>
       </c>
       <c r="H422" s="52" t="s">
+        <v>2246</v>
+      </c>
+      <c r="I422" s="6" t="s">
         <v>2247</v>
       </c>
-      <c r="I422" s="6" t="s">
+      <c r="J422" s="50" t="s">
         <v>2248</v>
-      </c>
-      <c r="J422" s="50" t="s">
-        <v>2249</v>
       </c>
       <c r="K422" s="14"/>
       <c r="L422" s="14"/>
@@ -27478,7 +27447,7 @@
     </row>
     <row r="423" spans="1:26" ht="15.75" customHeight="1">
       <c r="A423" s="82" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B423" s="82" t="s">
         <v>33</v>
@@ -27491,11 +27460,11 @@
       <c r="F423" s="81"/>
       <c r="G423" s="81"/>
       <c r="H423" s="82" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="I423" s="41"/>
       <c r="J423" s="82" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="K423" s="85"/>
       <c r="L423" s="85"/>
@@ -27516,13 +27485,13 @@
     </row>
     <row r="424" spans="1:26" ht="15.75" customHeight="1">
       <c r="A424" s="53" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B424" s="54" t="s">
         <v>500</v>
       </c>
       <c r="C424" s="54" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D424" s="54">
         <v>1823</v>
@@ -27535,11 +27504,11 @@
         <v>36</v>
       </c>
       <c r="H424" s="56" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="I424" s="39"/>
       <c r="J424" s="57" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="K424" s="19"/>
       <c r="L424" s="19"/>
@@ -27559,13 +27528,13 @@
     </row>
     <row r="425" spans="1:26" ht="15.75" customHeight="1">
       <c r="A425" s="51" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B425" s="52" t="s">
         <v>159</v>
       </c>
       <c r="C425" s="52" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D425" s="52">
         <v>1849</v>
@@ -27574,19 +27543,19 @@
         <v>1934</v>
       </c>
       <c r="F425" s="52" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="G425" s="52" t="s">
         <v>507</v>
       </c>
       <c r="H425" s="52" t="s">
+        <v>2258</v>
+      </c>
+      <c r="I425" s="16" t="s">
         <v>2259</v>
       </c>
-      <c r="I425" s="16" t="s">
+      <c r="J425" s="52" t="s">
         <v>2260</v>
-      </c>
-      <c r="J425" s="52" t="s">
-        <v>2261</v>
       </c>
       <c r="K425" s="5"/>
       <c r="L425" s="5"/>
@@ -27606,13 +27575,13 @@
     </row>
     <row r="426" spans="1:26" ht="15.75" customHeight="1">
       <c r="A426" s="53" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B426" s="54" t="s">
         <v>116</v>
       </c>
       <c r="C426" s="54" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D426" s="54">
         <v>1842</v>
@@ -27627,13 +27596,13 @@
         <v>705</v>
       </c>
       <c r="H426" s="56" t="s">
+        <v>2263</v>
+      </c>
+      <c r="I426" s="48" t="s">
         <v>2264</v>
       </c>
-      <c r="I426" s="48" t="s">
+      <c r="J426" s="57" t="s">
         <v>2265</v>
-      </c>
-      <c r="J426" s="57" t="s">
-        <v>2266</v>
       </c>
       <c r="K426" s="19"/>
       <c r="L426" s="19"/>
@@ -27653,7 +27622,7 @@
     </row>
     <row r="427" spans="1:26" ht="15.75" customHeight="1">
       <c r="A427" s="5" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B427" s="5"/>
       <c r="C427" s="5" t="s">
@@ -27666,17 +27635,17 @@
         <v>1902</v>
       </c>
       <c r="F427" s="5" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G427" s="5" t="s">
         <v>2268</v>
       </c>
-      <c r="G427" s="5" t="s">
+      <c r="H427" s="5" t="s">
         <v>2269</v>
-      </c>
-      <c r="H427" s="5" t="s">
-        <v>2270</v>
       </c>
       <c r="I427" s="16"/>
       <c r="J427" s="5" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="K427" s="5"/>
       <c r="L427" s="5"/>
@@ -27696,10 +27665,10 @@
     </row>
     <row r="428" spans="1:26" ht="15.75" customHeight="1">
       <c r="A428" s="5" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B428" s="5" t="s">
         <v>2272</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>2273</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>1125</v>
@@ -27709,11 +27678,11 @@
       <c r="F428" s="5"/>
       <c r="G428" s="5"/>
       <c r="H428" s="5" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="I428" s="16"/>
       <c r="J428" s="5" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="K428" s="5"/>
       <c r="L428" s="5"/>
@@ -27733,13 +27702,13 @@
     </row>
     <row r="429" spans="1:26" ht="15.75" customHeight="1">
       <c r="A429" s="51" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B429" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C429" s="52" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D429" s="52">
         <v>1864</v>
@@ -27748,19 +27717,19 @@
         <v>1937</v>
       </c>
       <c r="F429" s="52" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="G429" s="52" t="s">
         <v>61</v>
       </c>
       <c r="H429" s="52" t="s">
+        <v>2278</v>
+      </c>
+      <c r="I429" s="16" t="s">
         <v>2279</v>
       </c>
-      <c r="I429" s="16" t="s">
+      <c r="J429" s="52" t="s">
         <v>2280</v>
-      </c>
-      <c r="J429" s="52" t="s">
-        <v>2281</v>
       </c>
       <c r="K429" s="5"/>
       <c r="L429" s="5"/>
@@ -27780,7 +27749,7 @@
     </row>
     <row r="430" spans="1:26" ht="15.75" customHeight="1">
       <c r="A430" s="5" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>33</v>
@@ -27801,13 +27770,13 @@
         <v>36</v>
       </c>
       <c r="H430" s="5" t="s">
+        <v>2282</v>
+      </c>
+      <c r="I430" s="117">
+        <v>118729578</v>
+      </c>
+      <c r="J430" s="5" t="s">
         <v>2283</v>
-      </c>
-      <c r="I430" s="36" t="s">
-        <v>2284</v>
-      </c>
-      <c r="J430" s="5" t="s">
-        <v>2285</v>
       </c>
       <c r="K430" s="5"/>
       <c r="L430" s="5"/>
@@ -28854,7 +28823,7 @@
     <hyperlink ref="I420" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
     <hyperlink ref="I422" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
     <hyperlink ref="I426" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="I430" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="I430" r:id="rId183" display="http://d-nb.info/gnd/116001550" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
     <hyperlink ref="I384" r:id="rId184" xr:uid="{495044E1-451C-5C44-8474-96E1D040F344}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>

--- a/data/xlsx/Baernreither_Personenregister_2024.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D381A5B3-55F3-9045-BDB3-A2248E7A5905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F9770B-51A5-C840-B6F1-570FEE71F082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,6 +116,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Targowitz/</t>
     </r>
@@ -124,6 +125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Torhowyzja</t>
     </r>
@@ -818,6 +820,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Ba</t>
     </r>
@@ -826,6 +829,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>ž</t>
     </r>
@@ -834,6 +838,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>ant</t>
     </r>
@@ -1901,6 +1906,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Daszy</t>
     </r>
@@ -1909,6 +1915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>ński</t>
     </r>
@@ -6394,6 +6401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Prá</t>
     </r>
@@ -6402,6 +6410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>š</t>
     </r>
@@ -6410,6 +6419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>ek</t>
     </r>
@@ -7511,6 +7521,7 @@
         <sz val="11"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://d-nb.info/gnd/1035682745</t>
     </r>
@@ -8343,6 +8354,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Dombegyház</t>
     </r>
@@ -8351,6 +8363,7 @@
         <sz val="8"/>
         <color rgb="FF202122"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -8411,9 +8424,6 @@
   </si>
   <si>
     <t>1867, 1873–1882, 1901–1907 MböhmLt, 1873–1879 MöAH</t>
-  </si>
-  <si>
-    <t>Wanka Franz</t>
   </si>
   <si>
     <t>Waser</t>
@@ -8722,6 +8732,7 @@
         <sz val="11"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>http://d-nb.info/gnd/116001550</t>
     </r>
@@ -8758,6 +8769,9 @@
   </si>
   <si>
     <t>SchroeckenfuchsFranz</t>
+  </si>
+  <si>
+    <t>WankaFranz</t>
   </si>
 </sst>
 </file>
@@ -8775,23 +8789,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8803,11 +8821,13 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8815,108 +8835,126 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF4160A5"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF0563C1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF4160A5"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8924,48 +8962,56 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF4160A5"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8973,98 +9019,115 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF0563C1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9072,122 +9135,143 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF4160A5"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1B2028"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9195,11 +9279,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -9217,11 +9303,13 @@
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10326,8 +10414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A521" sqref="A521"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -11966,7 +12054,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" ht="32">
+    <row r="38" spans="1:25" ht="16">
       <c r="A38" s="27" t="s">
         <v>210</v>
       </c>
@@ -12609,7 +12697,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="22"/>
       <c r="J52" s="224" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -23897,7 +23985,7 @@
         <v>1659</v>
       </c>
       <c r="J302" s="224" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
@@ -25170,7 +25258,7 @@
         <v>1807</v>
       </c>
       <c r="I330" s="230" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="J330" s="26" t="s">
         <v>1808</v>
@@ -25353,24 +25441,24 @@
     </row>
     <row r="335" spans="1:25">
       <c r="A335" s="226" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B335" s="227" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C335" s="227" t="s">
         <v>2857</v>
-      </c>
-      <c r="B335" s="227" t="s">
-        <v>2859</v>
-      </c>
-      <c r="C335" s="227" t="s">
-        <v>2858</v>
       </c>
       <c r="D335" s="82"/>
       <c r="E335" s="82"/>
       <c r="F335" s="82"/>
       <c r="G335" s="82"/>
       <c r="H335" s="227" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="I335" s="94"/>
       <c r="J335" s="228" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="K335" s="9"/>
       <c r="L335" s="9"/>
@@ -26813,7 +26901,7 @@
       <c r="F367" s="26"/>
       <c r="G367" s="26"/>
       <c r="H367" s="232" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="I367" s="26"/>
       <c r="J367" s="15" t="s">
@@ -30044,7 +30132,7 @@
       </c>
       <c r="I440" s="19"/>
       <c r="J440" s="233" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
@@ -30626,7 +30714,7 @@
       </c>
       <c r="B453" s="84"/>
       <c r="C453" s="227" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D453" s="82"/>
       <c r="E453" s="83"/>
@@ -33388,7 +33476,7 @@
     </row>
     <row r="514" spans="1:26" ht="15.75" customHeight="1">
       <c r="A514" s="229" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B514" s="24"/>
       <c r="C514" s="23" t="s">
@@ -33411,7 +33499,7 @@
       </c>
       <c r="I514" s="98"/>
       <c r="J514" s="23" t="s">
-        <v>2754</v>
+        <v>2865</v>
       </c>
       <c r="K514" s="9"/>
       <c r="L514" s="9"/>
@@ -33431,10 +33519,10 @@
     </row>
     <row r="515" spans="1:26" ht="15.75" customHeight="1">
       <c r="A515" s="81" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B515" s="84" t="s">
         <v>2755</v>
-      </c>
-      <c r="B515" s="84" t="s">
-        <v>2756</v>
       </c>
       <c r="C515" s="82" t="s">
         <v>552</v>
@@ -33446,19 +33534,19 @@
         <v>1899</v>
       </c>
       <c r="F515" s="82" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="G515" s="82" t="s">
         <v>122</v>
       </c>
       <c r="H515" s="84" t="s">
+        <v>2757</v>
+      </c>
+      <c r="I515" s="180" t="s">
         <v>2758</v>
       </c>
-      <c r="I515" s="180" t="s">
+      <c r="J515" s="85" t="s">
         <v>2759</v>
-      </c>
-      <c r="J515" s="85" t="s">
-        <v>2760</v>
       </c>
       <c r="K515" s="9"/>
       <c r="L515" s="9"/>
@@ -33478,7 +33566,7 @@
     </row>
     <row r="516" spans="1:26" ht="15.75" customHeight="1">
       <c r="A516" s="219" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B516" s="83" t="s">
         <v>480</v>
@@ -33495,13 +33583,13 @@
       <c r="F516" s="83"/>
       <c r="G516" s="83"/>
       <c r="H516" s="220" t="s">
+        <v>2761</v>
+      </c>
+      <c r="I516" s="7" t="s">
         <v>2762</v>
       </c>
-      <c r="I516" s="7" t="s">
+      <c r="J516" s="221" t="s">
         <v>2763</v>
-      </c>
-      <c r="J516" s="221" t="s">
-        <v>2764</v>
       </c>
       <c r="K516" s="9"/>
       <c r="L516" s="9"/>
@@ -33521,11 +33609,11 @@
     </row>
     <row r="517" spans="1:26" ht="15.75" customHeight="1">
       <c r="A517" s="75" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B517" s="76"/>
       <c r="C517" s="76" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D517" s="76">
         <v>1848</v>
@@ -33534,19 +33622,19 @@
         <v>1921</v>
       </c>
       <c r="F517" s="76" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="G517" s="76" t="s">
         <v>82</v>
       </c>
       <c r="H517" s="76" t="s">
+        <v>2767</v>
+      </c>
+      <c r="I517" s="16" t="s">
         <v>2768</v>
       </c>
-      <c r="I517" s="16" t="s">
+      <c r="J517" s="76" t="s">
         <v>2769</v>
-      </c>
-      <c r="J517" s="76" t="s">
-        <v>2770</v>
       </c>
       <c r="K517" s="1"/>
       <c r="L517" s="1"/>
@@ -33566,13 +33654,13 @@
     </row>
     <row r="518" spans="1:26" ht="15.75" customHeight="1">
       <c r="A518" s="81" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B518" s="84" t="s">
         <v>2771</v>
       </c>
-      <c r="B518" s="84" t="s">
+      <c r="C518" s="82" t="s">
         <v>2772</v>
-      </c>
-      <c r="C518" s="82" t="s">
-        <v>2773</v>
       </c>
       <c r="D518" s="82">
         <v>1835</v>
@@ -33584,16 +33672,16 @@
         <v>134</v>
       </c>
       <c r="G518" s="82" t="s">
+        <v>2773</v>
+      </c>
+      <c r="H518" s="84" t="s">
         <v>2774</v>
       </c>
-      <c r="H518" s="84" t="s">
+      <c r="I518" s="72" t="s">
         <v>2775</v>
       </c>
-      <c r="I518" s="72" t="s">
+      <c r="J518" s="85" t="s">
         <v>2776</v>
-      </c>
-      <c r="J518" s="85" t="s">
-        <v>2777</v>
       </c>
       <c r="K518" s="26"/>
       <c r="L518" s="26"/>
@@ -33613,7 +33701,7 @@
     </row>
     <row r="519" spans="1:26" ht="15.75" customHeight="1">
       <c r="A519" s="2" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>1534</v>
@@ -33628,19 +33716,19 @@
         <v>1879</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="G519" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H519" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="I519" s="67" t="s">
         <v>2780</v>
       </c>
-      <c r="I519" s="67" t="s">
+      <c r="J519" s="2" t="s">
         <v>2781</v>
-      </c>
-      <c r="J519" s="2" t="s">
-        <v>2782</v>
       </c>
       <c r="K519" s="1"/>
       <c r="L519" s="1"/>
@@ -33660,10 +33748,10 @@
     </row>
     <row r="520" spans="1:26" ht="15.75" customHeight="1">
       <c r="A520" s="11" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B520" s="11" t="s">
         <v>2783</v>
-      </c>
-      <c r="B520" s="11" t="s">
-        <v>2784</v>
       </c>
       <c r="C520" s="11" t="s">
         <v>927</v>
@@ -33675,19 +33763,19 @@
         <v>1945</v>
       </c>
       <c r="F520" s="11" t="s">
+        <v>2784</v>
+      </c>
+      <c r="G520" s="11" t="s">
+        <v>2784</v>
+      </c>
+      <c r="H520" s="11" t="s">
         <v>2785</v>
       </c>
-      <c r="G520" s="11" t="s">
-        <v>2785</v>
-      </c>
-      <c r="H520" s="11" t="s">
+      <c r="I520" s="53" t="s">
         <v>2786</v>
       </c>
-      <c r="I520" s="53" t="s">
+      <c r="J520" s="11" t="s">
         <v>2787</v>
-      </c>
-      <c r="J520" s="11" t="s">
-        <v>2788</v>
       </c>
       <c r="K520" s="1"/>
       <c r="L520" s="1"/>
@@ -33707,7 +33795,7 @@
     </row>
     <row r="521" spans="1:26" ht="15.75" customHeight="1">
       <c r="A521" s="11" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
@@ -33716,11 +33804,11 @@
       <c r="F521" s="11"/>
       <c r="G521" s="11"/>
       <c r="H521" s="11" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="I521" s="17"/>
       <c r="J521" s="11" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="K521" s="1"/>
       <c r="L521" s="1"/>
@@ -33740,13 +33828,13 @@
     </row>
     <row r="522" spans="1:26" ht="15.75" customHeight="1">
       <c r="A522" s="75" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B522" s="76" t="s">
         <v>884</v>
       </c>
       <c r="C522" s="76" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="D522" s="76">
         <v>1851</v>
@@ -33758,16 +33846,16 @@
         <v>52</v>
       </c>
       <c r="G522" s="76" t="s">
+        <v>2792</v>
+      </c>
+      <c r="H522" s="76" t="s">
         <v>2793</v>
       </c>
-      <c r="H522" s="76" t="s">
+      <c r="I522" s="4" t="s">
         <v>2794</v>
       </c>
-      <c r="I522" s="4" t="s">
+      <c r="J522" s="76" t="s">
         <v>2795</v>
-      </c>
-      <c r="J522" s="76" t="s">
-        <v>2796</v>
       </c>
       <c r="K522" s="1"/>
       <c r="L522" s="1"/>
@@ -33787,10 +33875,10 @@
     </row>
     <row r="523" spans="1:26" ht="15.75" customHeight="1">
       <c r="A523" s="81" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B523" s="84" t="s">
         <v>2797</v>
-      </c>
-      <c r="B523" s="84" t="s">
-        <v>2798</v>
       </c>
       <c r="C523" s="82" t="s">
         <v>11</v>
@@ -33808,13 +33896,13 @@
         <v>20</v>
       </c>
       <c r="H523" s="84" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I523" s="72" t="s">
         <v>2799</v>
       </c>
-      <c r="I523" s="72" t="s">
+      <c r="J523" s="85" t="s">
         <v>2800</v>
-      </c>
-      <c r="J523" s="85" t="s">
-        <v>2801</v>
       </c>
       <c r="K523" s="9"/>
       <c r="L523" s="9"/>
@@ -33834,13 +33922,13 @@
     </row>
     <row r="524" spans="1:26" ht="15.75" customHeight="1">
       <c r="A524" s="26" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B524" s="27" t="s">
         <v>2802</v>
       </c>
-      <c r="B524" s="27" t="s">
+      <c r="C524" s="26" t="s">
         <v>2803</v>
-      </c>
-      <c r="C524" s="26" t="s">
-        <v>2804</v>
       </c>
       <c r="D524" s="26">
         <v>1852</v>
@@ -33849,19 +33937,19 @@
         <v>1937</v>
       </c>
       <c r="F524" s="26" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="G524" s="26" t="s">
         <v>82</v>
       </c>
       <c r="H524" s="27" t="s">
+        <v>2805</v>
+      </c>
+      <c r="I524" s="3" t="s">
         <v>2806</v>
       </c>
-      <c r="I524" s="3" t="s">
+      <c r="J524" s="26" t="s">
         <v>2807</v>
-      </c>
-      <c r="J524" s="26" t="s">
-        <v>2808</v>
       </c>
       <c r="K524" s="9"/>
       <c r="L524" s="9"/>
@@ -33881,13 +33969,13 @@
     </row>
     <row r="525" spans="1:26" ht="15.75" customHeight="1">
       <c r="A525" s="11" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B525" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C525" s="11" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D525" s="11">
         <v>1848</v>
@@ -33896,19 +33984,19 @@
         <v>1918</v>
       </c>
       <c r="F525" s="11" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="G525" s="11" t="s">
         <v>656</v>
       </c>
       <c r="H525" s="11" t="s">
+        <v>2811</v>
+      </c>
+      <c r="I525" s="53" t="s">
         <v>2812</v>
       </c>
-      <c r="I525" s="53" t="s">
+      <c r="J525" s="13" t="s">
         <v>2813</v>
-      </c>
-      <c r="J525" s="13" t="s">
-        <v>2814</v>
       </c>
       <c r="K525" s="14"/>
       <c r="L525" s="14"/>
@@ -33928,11 +34016,11 @@
     </row>
     <row r="526" spans="1:26" ht="15.75" customHeight="1">
       <c r="A526" s="75" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B526" s="76"/>
       <c r="C526" s="76" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="D526" s="76">
         <v>1862</v>
@@ -33947,13 +34035,13 @@
         <v>20</v>
       </c>
       <c r="H526" s="76" t="s">
+        <v>2816</v>
+      </c>
+      <c r="I526" s="4" t="s">
         <v>2817</v>
       </c>
-      <c r="I526" s="4" t="s">
+      <c r="J526" s="74" t="s">
         <v>2818</v>
-      </c>
-      <c r="J526" s="74" t="s">
-        <v>2819</v>
       </c>
       <c r="K526" s="14"/>
       <c r="L526" s="14"/>
@@ -33973,7 +34061,7 @@
     </row>
     <row r="527" spans="1:26" ht="15.75" customHeight="1">
       <c r="A527" s="125" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B527" s="125" t="s">
         <v>50</v>
@@ -33986,11 +34074,11 @@
       <c r="F527" s="124"/>
       <c r="G527" s="124"/>
       <c r="H527" s="125" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="I527" s="138"/>
       <c r="J527" s="125" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="K527" s="222"/>
       <c r="L527" s="222"/>
@@ -34011,13 +34099,13 @@
     </row>
     <row r="528" spans="1:26" ht="15.75" customHeight="1">
       <c r="A528" s="81" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B528" s="82" t="s">
         <v>480</v>
       </c>
       <c r="C528" s="82" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D528" s="82">
         <v>1823</v>
@@ -34030,11 +34118,11 @@
         <v>20</v>
       </c>
       <c r="H528" s="84" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="I528" s="62"/>
       <c r="J528" s="85" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="K528" s="26"/>
       <c r="L528" s="26"/>
@@ -34054,13 +34142,13 @@
     </row>
     <row r="529" spans="1:25" ht="15.75" customHeight="1">
       <c r="A529" s="75" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B529" s="76" t="s">
         <v>198</v>
       </c>
       <c r="C529" s="76" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D529" s="76">
         <v>1849</v>
@@ -34069,19 +34157,19 @@
         <v>1934</v>
       </c>
       <c r="F529" s="76" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="G529" s="76" t="s">
         <v>642</v>
       </c>
       <c r="H529" s="76" t="s">
+        <v>2828</v>
+      </c>
+      <c r="I529" s="18" t="s">
         <v>2829</v>
       </c>
-      <c r="I529" s="18" t="s">
+      <c r="J529" s="76" t="s">
         <v>2830</v>
-      </c>
-      <c r="J529" s="76" t="s">
-        <v>2831</v>
       </c>
       <c r="K529" s="1"/>
       <c r="L529" s="1"/>
@@ -34101,13 +34189,13 @@
     </row>
     <row r="530" spans="1:25" ht="15.75" customHeight="1">
       <c r="A530" s="81" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B530" s="82" t="s">
         <v>150</v>
       </c>
       <c r="C530" s="82" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D530" s="82">
         <v>1842</v>
@@ -34122,13 +34210,13 @@
         <v>908</v>
       </c>
       <c r="H530" s="84" t="s">
+        <v>2833</v>
+      </c>
+      <c r="I530" s="72" t="s">
         <v>2834</v>
       </c>
-      <c r="I530" s="72" t="s">
+      <c r="J530" s="85" t="s">
         <v>2835</v>
-      </c>
-      <c r="J530" s="85" t="s">
-        <v>2836</v>
       </c>
       <c r="K530" s="26"/>
       <c r="L530" s="26"/>
@@ -34148,7 +34236,7 @@
     </row>
     <row r="531" spans="1:25" ht="15.75" customHeight="1">
       <c r="A531" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" s="2" t="s">
@@ -34161,17 +34249,17 @@
         <v>1902</v>
       </c>
       <c r="F531" s="2" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G531" s="2" t="s">
         <v>2838</v>
       </c>
-      <c r="G531" s="2" t="s">
+      <c r="H531" s="2" t="s">
         <v>2839</v>
-      </c>
-      <c r="H531" s="2" t="s">
-        <v>2840</v>
       </c>
       <c r="I531" s="19"/>
       <c r="J531" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="K531" s="1"/>
       <c r="L531" s="1"/>
@@ -34191,10 +34279,10 @@
     </row>
     <row r="532" spans="1:25" ht="15.75" customHeight="1">
       <c r="A532" s="2" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B532" s="2" t="s">
         <v>2842</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>2843</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>370</v>
@@ -34204,11 +34292,11 @@
       <c r="F532" s="2"/>
       <c r="G532" s="2"/>
       <c r="H532" s="2" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="I532" s="19"/>
       <c r="J532" s="2" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="K532" s="1"/>
       <c r="L532" s="1"/>
@@ -34228,13 +34316,13 @@
     </row>
     <row r="533" spans="1:25" ht="15.75" customHeight="1">
       <c r="A533" s="75" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B533" s="76" t="s">
         <v>18</v>
       </c>
       <c r="C533" s="76" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="D533" s="76">
         <v>1864</v>
@@ -34243,19 +34331,19 @@
         <v>1937</v>
       </c>
       <c r="F533" s="76" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="G533" s="76" t="s">
         <v>82</v>
       </c>
       <c r="H533" s="76" t="s">
+        <v>2848</v>
+      </c>
+      <c r="I533" s="16" t="s">
         <v>2849</v>
       </c>
-      <c r="I533" s="16" t="s">
+      <c r="J533" s="76" t="s">
         <v>2850</v>
-      </c>
-      <c r="J533" s="76" t="s">
-        <v>2851</v>
       </c>
       <c r="K533" s="1"/>
       <c r="L533" s="1"/>
@@ -34275,7 +34363,7 @@
     </row>
     <row r="534" spans="1:25" ht="15.75" customHeight="1">
       <c r="A534" s="11" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B534" s="11" t="s">
         <v>50</v>
@@ -34296,13 +34384,13 @@
         <v>20</v>
       </c>
       <c r="H534" s="11" t="s">
+        <v>2852</v>
+      </c>
+      <c r="I534" s="53" t="s">
         <v>2853</v>
       </c>
-      <c r="I534" s="53" t="s">
+      <c r="J534" s="11" t="s">
         <v>2854</v>
-      </c>
-      <c r="J534" s="11" t="s">
-        <v>2855</v>
       </c>
       <c r="K534" s="1"/>
       <c r="L534" s="1"/>

--- a/data/xlsx/Baernreither_Personenregister_2024.xlsx
+++ b/data/xlsx/Baernreither_Personenregister_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2163714-CA95-2D47-AA75-A50BAB0C495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DC084-46EF-614F-A43E-015A7137D62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10440,8 +10440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B146" zoomScale="132" workbookViewId="0">
-      <selection activeCell="I160" sqref="I160"/>
+    <sheetView tabSelected="1" topLeftCell="H142" zoomScale="132" workbookViewId="0">
+      <selection activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
